--- a/public/spreadsheets/openRes-2.xlsx
+++ b/public/spreadsheets/openRes-2.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="25703"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="25808"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/igormarquessilva/Dropbox/00_Academico/IMD - Reserver/v2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/igormarquessilva/github/local/OpenRes/public/spreadsheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="97">
   <si>
     <t>DISCIPLINA</t>
   </si>
@@ -277,27 +277,12 @@
     <t>( = SOLUÇÃO ENCONTRADA? ) - CASO NÃO, EXIBIR LISTA DE DISCIPLINAS ORDENADAS CRESCENTEMENTE POR QUANTIDADE DE OPÇÕES</t>
   </si>
   <si>
-    <t>23456T123456</t>
-  </si>
-  <si>
     <t>7N12</t>
   </si>
   <si>
-    <t>MANHÃ</t>
-  </si>
-  <si>
-    <t>TARDE</t>
-  </si>
-  <si>
-    <t>NOITE</t>
-  </si>
-  <si>
     <t>2M34</t>
   </si>
   <si>
-    <t>23456N1234</t>
-  </si>
-  <si>
     <t>Marcel Oliveira + Ivan</t>
   </si>
   <si>
@@ -323,6 +308,18 @@
   </si>
   <si>
     <t>PARA TODO GRUPO, A SOLUÇÃO DEVE TER PELO MENOS UMA TURMA DE CADA DISCIPLINA DO GRUPO</t>
+  </si>
+  <si>
+    <t>Tipo</t>
+  </si>
+  <si>
+    <t>Sala Simples</t>
+  </si>
+  <si>
+    <t>23456M123456 23456T123456 23456T123456</t>
+  </si>
+  <si>
+    <t>A308</t>
   </si>
 </sst>
 </file>
@@ -394,7 +391,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -470,23 +467,8 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
+      <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -508,7 +490,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -539,12 +521,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -554,20 +536,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -581,10 +554,12 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="16">
     <cellStyle name="Hiperlink" xfId="2" builtinId="8" hidden="1"/>
@@ -880,19 +855,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V22"/>
+  <dimension ref="A1:S22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView tabSelected="1" topLeftCell="C3" workbookViewId="0">
+      <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="30.5" customWidth="1"/>
     <col min="4" max="4" width="10.6640625" customWidth="1"/>
-    <col min="5" max="5" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="36" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.83203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.83203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.83203125" bestFit="1" customWidth="1"/>
@@ -905,77 +880,75 @@
     <col min="16" max="16" width="37" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A1" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="31"/>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A2" s="24" t="s">
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="17"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A2" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="C2" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="D2" s="24" t="s">
+      <c r="D2" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A3" s="25"/>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="F3" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="G3" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="I3" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="J3" s="21"/>
-      <c r="K3" s="21"/>
-      <c r="L3" s="21"/>
-      <c r="M3" s="21"/>
-      <c r="N3" s="21"/>
-      <c r="O3" s="21"/>
-      <c r="P3" s="21"/>
-      <c r="Q3" s="21"/>
-      <c r="R3" s="21"/>
-      <c r="S3" s="21"/>
-      <c r="T3" s="21"/>
-      <c r="U3" s="21"/>
-      <c r="V3" s="21"/>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A3" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D3" s="3">
+        <v>40</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="F3" s="24" t="s">
         <v>92</v>
       </c>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="24"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="24"/>
+      <c r="Q3" s="24"/>
+      <c r="R3" s="24"/>
+      <c r="S3" s="24"/>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A4" s="3"/>
       <c r="B4" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>67</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>71</v>
       </c>
       <c r="D4" s="3">
         <v>40</v>
@@ -983,22 +956,14 @@
       <c r="E4" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>93</v>
-      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A5" s="3"/>
       <c r="B5" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>74</v>
+        <v>44</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>69</v>
       </c>
       <c r="D5" s="3">
         <v>40</v>
@@ -1006,29 +971,28 @@
       <c r="E5" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>44</v>
+        <v>94</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C6" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="D6" s="3">
-        <v>40</v>
+      <c r="D6" s="16">
+        <v>20</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="F7" s="11"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9" s="23" t="s">
         <v>0</v>
       </c>
@@ -1038,18 +1002,18 @@
       <c r="E9" s="23"/>
       <c r="F9" s="23"/>
       <c r="G9" s="23"/>
-      <c r="H9" s="18" t="s">
+      <c r="H9" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="19"/>
-      <c r="L9" s="19"/>
-      <c r="M9" s="19"/>
-      <c r="N9" s="19"/>
-      <c r="O9" s="20"/>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="21"/>
+      <c r="M9" s="21"/>
+      <c r="N9" s="21"/>
+      <c r="O9" s="22"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>1</v>
       </c>
@@ -1096,7 +1060,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
         <v>3</v>
       </c>
@@ -1116,13 +1080,13 @@
         <v>1</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="H11" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I11" s="17" t="s">
-        <v>74</v>
+      <c r="I11" s="15" t="s">
+        <v>71</v>
       </c>
       <c r="J11" s="6"/>
       <c r="K11" s="3"/>
@@ -1134,7 +1098,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
@@ -1145,8 +1109,8 @@
       <c r="H12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I12" s="17" t="s">
-        <v>72</v>
+      <c r="I12" s="15" t="s">
+        <v>71</v>
       </c>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
@@ -1156,7 +1120,7 @@
       <c r="O12" s="3"/>
       <c r="P12" s="9"/>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -1165,10 +1129,10 @@
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
       <c r="H13" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="I13" s="17" t="s">
-        <v>74</v>
+        <v>83</v>
+      </c>
+      <c r="I13" s="15" t="s">
+        <v>71</v>
       </c>
       <c r="J13" s="6"/>
       <c r="K13" s="3"/>
@@ -1178,7 +1142,7 @@
       <c r="O13" s="3"/>
       <c r="P13" s="9"/>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
@@ -1189,8 +1153,8 @@
       <c r="H14" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="I14" s="17" t="s">
-        <v>72</v>
+      <c r="I14" s="15" t="s">
+        <v>71</v>
       </c>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
@@ -1200,7 +1164,7 @@
       <c r="O14" s="3"/>
       <c r="P14" s="9"/>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
@@ -1211,8 +1175,8 @@
       <c r="H15" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="I15" s="17" t="s">
-        <v>74</v>
+      <c r="I15" s="15" t="s">
+        <v>71</v>
       </c>
       <c r="J15" s="6"/>
       <c r="K15" s="3"/>
@@ -1221,7 +1185,7 @@
       <c r="N15" s="3"/>
       <c r="O15" s="3"/>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
         <v>9</v>
       </c>
@@ -1246,8 +1210,8 @@
       <c r="H16" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I16" s="17" t="s">
-        <v>74</v>
+      <c r="I16" s="15" t="s">
+        <v>71</v>
       </c>
       <c r="J16" s="6"/>
       <c r="K16" s="3"/>
@@ -1267,8 +1231,8 @@
       <c r="H17" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I17" s="17" t="s">
-        <v>74</v>
+      <c r="I17" s="15" t="s">
+        <v>71</v>
       </c>
       <c r="J17" s="6"/>
       <c r="K17" s="3"/>
@@ -1288,8 +1252,8 @@
       <c r="H18" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="I18" s="17" t="s">
-        <v>74</v>
+      <c r="I18" s="15" t="s">
+        <v>71</v>
       </c>
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
@@ -1309,8 +1273,8 @@
       <c r="H19" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="I19" s="17" t="s">
-        <v>74</v>
+      <c r="I19" s="15" t="s">
+        <v>71</v>
       </c>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
@@ -1321,13 +1285,13 @@
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D20" s="6">
         <v>2</v>
@@ -1344,8 +1308,8 @@
       <c r="H20" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I20" s="17" t="s">
-        <v>72</v>
+      <c r="I20" s="15" t="s">
+        <v>71</v>
       </c>
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
@@ -1365,23 +1329,23 @@
       <c r="H21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I21" s="17" t="s">
-        <v>72</v>
+      <c r="I21" s="15" t="s">
+        <v>71</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>54</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>72</v>
+        <v>94</v>
       </c>
       <c r="L21" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="M21" s="6" t="s">
-        <v>75</v>
+      <c r="M21" s="3" t="s">
+        <v>94</v>
       </c>
       <c r="N21" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O21" s="15" t="s">
         <v>71</v>
@@ -1398,8 +1362,8 @@
       <c r="H22" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="I22" s="17" t="s">
-        <v>72</v>
+      <c r="I22" s="15" t="s">
+        <v>71</v>
       </c>
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
@@ -1409,15 +1373,11 @@
       <c r="O22" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="4">
     <mergeCell ref="H9:O9"/>
     <mergeCell ref="A9:G9"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="I3:V3"/>
-    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="F3:S3"/>
+    <mergeCell ref="A1:E1"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="landscape"/>
@@ -1478,18 +1438,18 @@
       <c r="D3" s="7">
         <v>0.8</v>
       </c>
-      <c r="E3" s="29" t="s">
+      <c r="E3" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
-      <c r="L3" s="22"/>
-      <c r="M3" s="22"/>
-      <c r="N3" s="22"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="29"/>
+      <c r="M3" s="29"/>
+      <c r="N3" s="29"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
@@ -1516,70 +1476,70 @@
       <c r="D7" s="3"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A8" s="27" t="s">
+      <c r="A8" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="B8" s="27"/>
-      <c r="C8" s="27"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="26"/>
       <c r="D8" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="E8" s="29" t="s">
+      <c r="E8" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="F8" s="22"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="22"/>
-      <c r="J8" s="22"/>
-      <c r="K8" s="22"/>
-      <c r="L8" s="22"/>
-      <c r="M8" s="22"/>
-      <c r="N8" s="22"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="29"/>
+      <c r="L8" s="29"/>
+      <c r="M8" s="29"/>
+      <c r="N8" s="29"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A9" s="27" t="s">
+      <c r="A9" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="B9" s="27"/>
-      <c r="C9" s="27"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="26"/>
       <c r="D9" s="7">
         <v>0.75</v>
       </c>
-      <c r="E9" s="29" t="s">
+      <c r="E9" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="F9" s="22"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="22"/>
-      <c r="J9" s="22"/>
-      <c r="K9" s="22"/>
-      <c r="L9" s="22"/>
-      <c r="M9" s="22"/>
-      <c r="N9" s="22"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="29"/>
+      <c r="L9" s="29"/>
+      <c r="M9" s="29"/>
+      <c r="N9" s="29"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A10" s="28" t="s">
+      <c r="A10" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="B10" s="28"/>
-      <c r="C10" s="28"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="27"/>
       <c r="D10" s="12">
         <v>1</v>
       </c>
-      <c r="E10" s="29" t="s">
+      <c r="E10" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="F10" s="22"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="22"/>
-      <c r="I10" s="22"/>
-      <c r="J10" s="22"/>
-      <c r="K10" s="22"/>
-      <c r="L10" s="22"/>
-      <c r="M10" s="22"/>
-      <c r="N10" s="22"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="29"/>
+      <c r="I10" s="29"/>
+      <c r="J10" s="29"/>
+      <c r="K10" s="29"/>
+      <c r="L10" s="29"/>
+      <c r="M10" s="29"/>
+      <c r="N10" s="29"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="10"/>
@@ -1600,36 +1560,36 @@
       <c r="B13" s="30"/>
       <c r="C13" s="30"/>
       <c r="D13" s="30"/>
-      <c r="F13" s="29" t="s">
-        <v>91</v>
-      </c>
-      <c r="G13" s="22"/>
-      <c r="H13" s="22"/>
-      <c r="I13" s="22"/>
-      <c r="J13" s="22"/>
-      <c r="K13" s="22"/>
-      <c r="L13" s="22"/>
-      <c r="M13" s="22"/>
-      <c r="N13" s="22"/>
-      <c r="O13" s="22"/>
+      <c r="F13" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="G13" s="29"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="29"/>
+      <c r="J13" s="29"/>
+      <c r="K13" s="29"/>
+      <c r="L13" s="29"/>
+      <c r="M13" s="29"/>
+      <c r="N13" s="29"/>
+      <c r="O13" s="29"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="30"/>
       <c r="B14" s="30"/>
       <c r="C14" s="30"/>
       <c r="D14" s="30"/>
-      <c r="F14" s="29" t="s">
-        <v>90</v>
-      </c>
-      <c r="G14" s="22"/>
-      <c r="H14" s="22"/>
-      <c r="I14" s="22"/>
-      <c r="J14" s="22"/>
-      <c r="K14" s="22"/>
-      <c r="L14" s="22"/>
-      <c r="M14" s="22"/>
-      <c r="N14" s="22"/>
-      <c r="O14" s="22"/>
+      <c r="F14" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="G14" s="29"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="29"/>
+      <c r="K14" s="29"/>
+      <c r="L14" s="29"/>
+      <c r="M14" s="29"/>
+      <c r="N14" s="29"/>
+      <c r="O14" s="29"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="30"/>
@@ -1644,16 +1604,16 @@
       <c r="D16" s="30"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="18" t="s">
+      <c r="A18" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="B18" s="19"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="20"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="22"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
@@ -1880,10 +1840,10 @@
       <c r="B37" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C37" s="26" t="s">
+      <c r="C37" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="D37" s="26"/>
+      <c r="D37" s="25"/>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
       <c r="G37" s="3"/>

--- a/public/spreadsheets/openRes-2.xlsx
+++ b/public/spreadsheets/openRes-2.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="124">
   <si>
     <t>DISCIPLINA</t>
   </si>
@@ -52,9 +52,6 @@
     <t>24M34</t>
   </si>
   <si>
-    <t>HORÁRIOS</t>
-  </si>
-  <si>
     <t>3M12</t>
   </si>
   <si>
@@ -190,9 +187,6 @@
     <t>CONFLITOS</t>
   </si>
   <si>
-    <t>CAP.</t>
-  </si>
-  <si>
     <t>4M34</t>
   </si>
   <si>
@@ -229,9 +223,6 @@
     <t>DISPONIBILIDADE</t>
   </si>
   <si>
-    <t>CAP</t>
-  </si>
-  <si>
     <t>Sala de Aula</t>
   </si>
   <si>
@@ -298,9 +289,6 @@
     <t>D03</t>
   </si>
   <si>
-    <t>PARA TODO GRUPO, A SOLUÇÃO DEVE TER PELO MENOS UMA TURMA DE CADA DISCIPLINA DO GRUPO</t>
-  </si>
-  <si>
     <t>Tipo</t>
   </si>
   <si>
@@ -310,16 +298,109 @@
     <t>A308</t>
   </si>
   <si>
-    <t>OS TIPOS DEVEM ESTAR PRESENES NA TABELA DE RECURSOS</t>
-  </si>
-  <si>
     <t>Marcel Oliveira/Ivan</t>
   </si>
   <si>
-    <t>SEPARADOS POR /</t>
-  </si>
-  <si>
     <t>23456M123456 23456T123456 23456N1234</t>
+  </si>
+  <si>
+    <t>OBSERVAÇÕES</t>
+  </si>
+  <si>
+    <t>EXEMPLOS</t>
+  </si>
+  <si>
+    <t>Código da turma no SIGAA</t>
+  </si>
+  <si>
+    <t>Título da turma</t>
+  </si>
+  <si>
+    <t>Abreviação do título da turma</t>
+  </si>
+  <si>
+    <t>Quantidade de alunos esperados na turma</t>
+  </si>
+  <si>
+    <t>ALUNOS</t>
+  </si>
+  <si>
+    <t>DESCRIÇÃO</t>
+  </si>
+  <si>
+    <t>CAMPO</t>
+  </si>
+  <si>
+    <t>Horários disponíveis da sala. Deve ser no formato: DIAS PRIMEIRA LETRA DO TURNO HORARIOS (sem espaços).</t>
+  </si>
+  <si>
+    <t>Compiladores 1</t>
+  </si>
+  <si>
+    <t>CO1</t>
+  </si>
+  <si>
+    <t>Marcel</t>
+  </si>
+  <si>
+    <t>Marcel/Ivan</t>
+  </si>
+  <si>
+    <t>Professor que ministrará a turma. Em caso de turmas com mais de um professor, separar nomes por barras</t>
+  </si>
+  <si>
+    <t>Horário da turma no formato usado no SIGAA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23456M123456 </t>
+  </si>
+  <si>
+    <t>EXPLICAÇÃO EXEMPLO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23456M123456 23456T123456 23456N1234 </t>
+  </si>
+  <si>
+    <t>24T12</t>
+  </si>
+  <si>
+    <t>Segundas e Quartas, nos horários 1 e 2 da tarde</t>
+  </si>
+  <si>
+    <t>Ambos os professores em algum momento participarão da disciplina</t>
+  </si>
+  <si>
+    <t>As aulas ocorrerão nas segundas e quartas nos 2 primeiros horários da amanhã</t>
+  </si>
+  <si>
+    <t>Disponível todos os dias da semana pela manhã, em todos os horário</t>
+  </si>
+  <si>
+    <t>Todos os dias, em todos os horários</t>
+  </si>
+  <si>
+    <t>Tipo de sala solicitada. DEVE HAVER AO MENOS UMA SALA DO TIPO NA TABELA DE RECURSOS</t>
+  </si>
+  <si>
+    <t>Deve haver ao menos um Mini-auditório na tabela de recursos</t>
+  </si>
+  <si>
+    <t>TURMAS</t>
+  </si>
+  <si>
+    <t>PREENCHIMENTO</t>
+  </si>
+  <si>
+    <t>Em casos de turmas com mais de uma sala, sempre informar o horário e em seguida o tipo da sala para cada uma das salas necessárias</t>
+  </si>
+  <si>
+    <t>Podem ser informados infinitos recursos.</t>
+  </si>
+  <si>
+    <t>Uma turma só deve ter UMA linha de especificações (código, nome, sigla, alunos, turma e professor. Porém, podem ter infinitas linhas com sugestões</t>
+  </si>
+  <si>
+    <t>SUGESTÕES DE HORÁRIO</t>
   </si>
 </sst>
 </file>
@@ -366,7 +447,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -386,12 +467,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor rgb="FF000000"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -471,6 +564,52 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -492,7 +631,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -526,6 +665,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -536,12 +684,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -559,10 +701,75 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="18">
     <cellStyle name="Hiperlink" xfId="2" builtinId="8" hidden="1"/>
@@ -860,10 +1067,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S22"/>
+  <dimension ref="A1:P39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -871,35 +1078,40 @@
     <col min="1" max="1" width="11.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="30.5" customWidth="1"/>
-    <col min="4" max="4" width="10.6640625" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="36" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.83203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="46.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="26.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5" customWidth="1"/>
+    <col min="8" max="8" width="61.83203125" customWidth="1"/>
+    <col min="9" max="9" width="34.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="44.1640625" customWidth="1"/>
     <col min="11" max="11" width="15.83203125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.83203125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="16.83203125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="37" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A1" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
       <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="16"/>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="G1" s="43" t="s">
+        <v>91</v>
+      </c>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+    </row>
+    <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="18" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B2" s="18" t="s">
         <v>1</v>
@@ -908,465 +1120,635 @@
         <v>2</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>66</v>
+        <v>14</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+        <v>63</v>
+      </c>
+      <c r="G2" s="45" t="s">
+        <v>99</v>
+      </c>
+      <c r="H2" s="45" t="s">
+        <v>98</v>
+      </c>
+      <c r="I2" s="45" t="s">
+        <v>92</v>
+      </c>
+      <c r="J2" s="45" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D3" s="3">
         <v>40</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="F3" s="23" t="s">
-        <v>89</v>
-      </c>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="23"/>
-      <c r="K3" s="23"/>
-      <c r="L3" s="23"/>
-      <c r="M3" s="23"/>
-      <c r="N3" s="23"/>
-      <c r="O3" s="23"/>
-      <c r="P3" s="23"/>
-      <c r="Q3" s="23"/>
-      <c r="R3" s="23"/>
-      <c r="S3" s="23"/>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+        <v>90</v>
+      </c>
+      <c r="G3" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="39"/>
+    </row>
+    <row r="4" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
       <c r="B4" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D4" s="3">
         <v>40</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+      <c r="G4" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="H4" s="33" t="s">
+        <v>100</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="J4" s="50" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
       <c r="B5" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D5" s="3">
         <v>40</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+      <c r="G5" s="47"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="J5" s="50" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D6" s="15">
         <v>20</v>
       </c>
       <c r="E6" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G6" s="48"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="J6" s="50" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="G7" s="40" t="s">
+        <v>118</v>
+      </c>
+      <c r="H7" s="41"/>
+      <c r="I7" s="41"/>
+      <c r="J7" s="42"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="G8" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="H8" s="36" t="s">
+        <v>93</v>
+      </c>
+      <c r="I8" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="J8" s="50"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="G9" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="H9" s="36" t="s">
+        <v>94</v>
+      </c>
+      <c r="I9" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="J9" s="50"/>
+      <c r="O9" s="16"/>
+    </row>
+    <row r="10" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G10" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" s="36" t="s">
+        <v>95</v>
+      </c>
+      <c r="I10" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="J10" s="50"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="G11" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="H11" s="36" t="s">
+        <v>96</v>
+      </c>
+      <c r="I11" s="19">
+        <v>40</v>
+      </c>
+      <c r="J11" s="50"/>
+      <c r="P11" s="8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G12" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="H12" s="33" t="s">
+        <v>105</v>
+      </c>
+      <c r="I12" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="J12" s="50"/>
+      <c r="P12" s="20"/>
+    </row>
+    <row r="13" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G13" s="32"/>
+      <c r="H13" s="35"/>
+      <c r="I13" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="J13" s="50" t="s">
+        <v>112</v>
+      </c>
+      <c r="P13" s="20"/>
+    </row>
+    <row r="14" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+      <c r="G14" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="H14" s="36" t="s">
+        <v>106</v>
+      </c>
+      <c r="I14" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="J14" s="50" t="s">
+        <v>113</v>
+      </c>
+      <c r="P14" s="20"/>
+    </row>
+    <row r="15" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+      <c r="G15" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="H15" s="36" t="s">
+        <v>116</v>
+      </c>
+      <c r="I15" s="11" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="F7" s="31" t="s">
-        <v>95</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A9" s="22" t="s">
+      <c r="J15" s="50" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="G16" s="40" t="s">
+        <v>119</v>
+      </c>
+      <c r="H16" s="41"/>
+      <c r="I16" s="41"/>
+      <c r="J16" s="42"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="G17" s="49" t="s">
+        <v>120</v>
+      </c>
+      <c r="H17" s="49"/>
+      <c r="I17" s="49"/>
+      <c r="J17" s="49"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="G18" s="51" t="s">
+        <v>121</v>
+      </c>
+      <c r="H18" s="52"/>
+      <c r="I18" s="52"/>
+      <c r="J18" s="53"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="G19" s="51" t="s">
+        <v>122</v>
+      </c>
+      <c r="H19" s="52"/>
+      <c r="I19" s="52"/>
+      <c r="J19" s="53"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A26" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="22"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="19" t="s">
+      <c r="B26" s="23"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="H26" s="23"/>
+      <c r="I26" s="23"/>
+      <c r="J26" s="23"/>
+      <c r="K26" s="23"/>
+      <c r="L26" s="23"/>
+      <c r="M26" s="23"/>
+      <c r="N26" s="24"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="M27" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N27" s="13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A28" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D28" s="6">
+        <v>40</v>
+      </c>
+      <c r="E28" s="6">
+        <v>1</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H28" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="I28" s="6"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A29" s="6"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H29" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A30" s="6"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="H30" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="I30" s="6"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="3"/>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A31" s="6"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="H31" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A32" s="6"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H32" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="I32" s="6"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="3"/>
+      <c r="M32" s="3"/>
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A33" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D33" s="6">
+        <v>20</v>
+      </c>
+      <c r="E33" s="6">
+        <v>1</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H33" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="I33" s="6"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
+      <c r="L33" s="3"/>
+      <c r="M33" s="3"/>
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A34" s="6"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H34" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="I34" s="6"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
+      <c r="L34" s="3"/>
+      <c r="M34" s="3"/>
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A35" s="6"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="H35" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
+      <c r="K35" s="3"/>
+      <c r="L35" s="3"/>
+      <c r="M35" s="3"/>
+      <c r="N35" s="3"/>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A36" s="6"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H36" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
+      <c r="K36" s="3"/>
+      <c r="L36" s="3"/>
+      <c r="M36" s="3"/>
+      <c r="N36" s="3"/>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A37" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="D37" s="6">
+        <v>20</v>
+      </c>
+      <c r="E37" s="6">
+        <v>2</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H37" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="I37" s="3"/>
+      <c r="J37" s="3"/>
+      <c r="K37" s="3"/>
+      <c r="L37" s="3"/>
+      <c r="M37" s="3"/>
+      <c r="N37" s="3"/>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A38" s="6"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I9" s="20"/>
-      <c r="J9" s="20"/>
-      <c r="K9" s="20"/>
-      <c r="L9" s="20"/>
-      <c r="M9" s="20"/>
-      <c r="N9" s="21"/>
-      <c r="O9" s="16"/>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D10" s="2" t="s">
+      <c r="H38" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="I38" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J38" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K38" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="M10" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="N10" s="13" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A11" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="D11" s="6">
-        <v>40</v>
-      </c>
-      <c r="E11" s="6">
-        <v>1</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H11" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="I11" s="6"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
-      <c r="P11" s="8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A12" s="6"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H12" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
-      <c r="P12" s="30"/>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="H13" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="I13" s="6"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
-      <c r="P13" s="30"/>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="H14" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
-      <c r="P14" s="30"/>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="3" t="s">
+      <c r="L38" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="M38" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="H15" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="I15" s="6"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A16" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="D16" s="6">
-        <v>20</v>
-      </c>
-      <c r="E16" s="6">
-        <v>1</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H16" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="I16" s="6"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
-      <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A17" s="6"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H17" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="I17" s="6"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
-      <c r="N17" s="3"/>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A18" s="6"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="H18" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
-      <c r="N18" s="3"/>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A19" s="6"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="H19" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
-      <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A20" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="D20" s="6">
-        <v>20</v>
-      </c>
-      <c r="E20" s="6">
-        <v>2</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="G20" s="3" t="s">
+      <c r="N38" s="14" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A39" s="6"/>
+      <c r="B39" s="6"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H20" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
-      <c r="N20" s="3"/>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A21" s="6"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H21" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="K21" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="L21" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="M21" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="N21" s="14" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A22" s="6"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H22" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
-      <c r="M22" s="3"/>
-      <c r="N22" s="3"/>
+      <c r="H39" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="I39" s="3"/>
+      <c r="J39" s="3"/>
+      <c r="K39" s="3"/>
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A9:G9"/>
-    <mergeCell ref="F3:S3"/>
+  <mergeCells count="14">
+    <mergeCell ref="A26:F26"/>
+    <mergeCell ref="G26:N26"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="G16:J16"/>
+    <mergeCell ref="G17:J17"/>
+    <mergeCell ref="G18:J18"/>
+    <mergeCell ref="G19:J19"/>
     <mergeCell ref="A1:E1"/>
-    <mergeCell ref="H9:N9"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="G7:J7"/>
+    <mergeCell ref="G3:J3"/>
+    <mergeCell ref="G4:G6"/>
+    <mergeCell ref="H4:H6"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="landscape"/>
@@ -1389,12 +1771,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
+      <c r="A1" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -1402,24 +1784,24 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C3" s="3">
         <v>63</v>
@@ -1427,18 +1809,18 @@
       <c r="D3" s="7">
         <v>0.8</v>
       </c>
-      <c r="E3" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="28"/>
-      <c r="L3" s="28"/>
-      <c r="M3" s="28"/>
-      <c r="N3" s="28"/>
+      <c r="E3" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="29"/>
+      <c r="M3" s="29"/>
+      <c r="N3" s="29"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
@@ -1465,70 +1847,70 @@
       <c r="D7" s="3"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A8" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
+      <c r="A8" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" s="26"/>
+      <c r="C8" s="26"/>
       <c r="D8" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="E8" s="27" t="s">
-        <v>79</v>
-      </c>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="28"/>
-      <c r="L8" s="28"/>
-      <c r="M8" s="28"/>
-      <c r="N8" s="28"/>
+        <v>75</v>
+      </c>
+      <c r="E8" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="29"/>
+      <c r="L8" s="29"/>
+      <c r="M8" s="29"/>
+      <c r="N8" s="29"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A9" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="B9" s="25"/>
-      <c r="C9" s="25"/>
+      <c r="A9" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" s="26"/>
+      <c r="C9" s="26"/>
       <c r="D9" s="7">
         <v>0.75</v>
       </c>
-      <c r="E9" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="F9" s="28"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="28"/>
-      <c r="J9" s="28"/>
-      <c r="K9" s="28"/>
-      <c r="L9" s="28"/>
-      <c r="M9" s="28"/>
-      <c r="N9" s="28"/>
+      <c r="E9" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="29"/>
+      <c r="L9" s="29"/>
+      <c r="M9" s="29"/>
+      <c r="N9" s="29"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A10" s="26" t="s">
-        <v>57</v>
-      </c>
-      <c r="B10" s="26"/>
-      <c r="C10" s="26"/>
+      <c r="A10" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="B10" s="27"/>
+      <c r="C10" s="27"/>
       <c r="D10" s="11">
         <v>1</v>
       </c>
-      <c r="E10" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="F10" s="28"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="28"/>
-      <c r="J10" s="28"/>
-      <c r="K10" s="28"/>
-      <c r="L10" s="28"/>
-      <c r="M10" s="28"/>
-      <c r="N10" s="28"/>
+      <c r="E10" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="F10" s="29"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="29"/>
+      <c r="I10" s="29"/>
+      <c r="J10" s="29"/>
+      <c r="K10" s="29"/>
+      <c r="L10" s="29"/>
+      <c r="M10" s="29"/>
+      <c r="N10" s="29"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="9"/>
@@ -1537,102 +1919,102 @@
       <c r="D11" s="10"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A12" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="B12" s="29"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="29"/>
+      <c r="A12" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" s="30"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A13" s="29"/>
-      <c r="B13" s="29"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="29"/>
-      <c r="F13" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="G13" s="28"/>
-      <c r="H13" s="28"/>
-      <c r="I13" s="28"/>
-      <c r="J13" s="28"/>
-      <c r="K13" s="28"/>
-      <c r="L13" s="28"/>
-      <c r="M13" s="28"/>
-      <c r="N13" s="28"/>
-      <c r="O13" s="28"/>
+      <c r="A13" s="30"/>
+      <c r="B13" s="30"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="F13" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="G13" s="29"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="29"/>
+      <c r="J13" s="29"/>
+      <c r="K13" s="29"/>
+      <c r="L13" s="29"/>
+      <c r="M13" s="29"/>
+      <c r="N13" s="29"/>
+      <c r="O13" s="29"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A14" s="29"/>
-      <c r="B14" s="29"/>
-      <c r="C14" s="29"/>
-      <c r="D14" s="29"/>
-      <c r="F14" s="27" t="s">
-        <v>82</v>
-      </c>
-      <c r="G14" s="28"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="28"/>
-      <c r="J14" s="28"/>
-      <c r="K14" s="28"/>
-      <c r="L14" s="28"/>
-      <c r="M14" s="28"/>
-      <c r="N14" s="28"/>
-      <c r="O14" s="28"/>
+      <c r="A14" s="30"/>
+      <c r="B14" s="30"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
+      <c r="F14" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="G14" s="29"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="29"/>
+      <c r="K14" s="29"/>
+      <c r="L14" s="29"/>
+      <c r="M14" s="29"/>
+      <c r="N14" s="29"/>
+      <c r="O14" s="29"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A15" s="29"/>
-      <c r="B15" s="29"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="29"/>
+      <c r="A15" s="30"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A16" s="29"/>
-      <c r="B16" s="29"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="29"/>
+      <c r="A16" s="30"/>
+      <c r="B16" s="30"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="30"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="B18" s="20"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="21"/>
+      <c r="A18" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="24"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B19" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="D19" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="E19" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E19" s="6" t="s">
+      <c r="F19" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="6" t="s">
+      <c r="G19" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G19" s="6" t="s">
+      <c r="H19" s="6" t="s">
         <v>24</v>
-      </c>
-      <c r="H19" s="6" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
@@ -1644,7 +2026,7 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
@@ -1656,7 +2038,7 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
@@ -1668,7 +2050,7 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
@@ -1680,7 +2062,7 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
@@ -1692,7 +2074,7 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
@@ -1704,7 +2086,7 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
@@ -1716,7 +2098,7 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
@@ -1728,7 +2110,7 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
@@ -1740,7 +2122,7 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
@@ -1752,7 +2134,7 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
@@ -1764,7 +2146,7 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
@@ -1776,7 +2158,7 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B32" s="6"/>
       <c r="C32" s="6"/>
@@ -1788,7 +2170,7 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>
@@ -1800,7 +2182,7 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B34" s="6"/>
       <c r="C34" s="6"/>
@@ -1812,7 +2194,7 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
@@ -1824,15 +2206,15 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C37" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="D37" s="24"/>
+        <v>43</v>
+      </c>
+      <c r="C37" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="D37" s="25"/>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
       <c r="G37" s="3"/>
@@ -1840,33 +2222,33 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B38" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C38" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C38" s="6" t="s">
+      <c r="D38" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D38" s="6" t="s">
+      <c r="E38" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E38" s="6" t="s">
+      <c r="F38" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F38" s="6" t="s">
+      <c r="G38" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G38" s="6" t="s">
+      <c r="H38" s="6" t="s">
         <v>24</v>
-      </c>
-      <c r="H38" s="6" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B39" s="6"/>
       <c r="C39" s="6"/>
@@ -1878,7 +2260,7 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B40" s="6"/>
       <c r="C40" s="6"/>
@@ -1890,7 +2272,7 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B41" s="6"/>
       <c r="C41" s="6"/>
@@ -1902,7 +2284,7 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B42" s="6"/>
       <c r="C42" s="6"/>
@@ -1914,7 +2296,7 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B43" s="6"/>
       <c r="C43" s="6"/>
@@ -1926,7 +2308,7 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B44" s="6"/>
       <c r="C44" s="6"/>
@@ -1938,7 +2320,7 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B45" s="6"/>
       <c r="C45" s="6"/>
@@ -1950,7 +2332,7 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B46" s="6"/>
       <c r="C46" s="6"/>
@@ -1962,7 +2344,7 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B47" s="6"/>
       <c r="C47" s="6"/>
@@ -1974,7 +2356,7 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B48" s="6"/>
       <c r="C48" s="6"/>
@@ -1986,7 +2368,7 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B49" s="6"/>
       <c r="C49" s="6"/>
@@ -1998,7 +2380,7 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B50" s="6"/>
       <c r="C50" s="6"/>
@@ -2010,7 +2392,7 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B51" s="6"/>
       <c r="C51" s="6"/>
@@ -2022,7 +2404,7 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B52" s="6"/>
       <c r="C52" s="6"/>
@@ -2034,7 +2416,7 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B53" s="6"/>
       <c r="C53" s="6"/>
@@ -2046,7 +2428,7 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B54" s="6"/>
       <c r="C54" s="6"/>
@@ -2092,32 +2474,32 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
